--- a/RS-OP-2016/result_graphs.xlsx
+++ b/RS-OP-2016/result_graphs.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>w</t>
   </si>
   <si>
@@ -36,6 +33,9 @@
   </si>
   <si>
     <t>meanQuerySimilarity</t>
+  </si>
+  <si>
+    <t>B1 - camera</t>
   </si>
 </sst>
 </file>
@@ -134,7 +134,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0837304592791003"/>
+          <c:y val="0.114853658536585"/>
+          <c:w val="0.884430692497749"/>
+          <c:h val="0.802524102170156"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -155,7 +165,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -166,11 +176,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -228,158 +238,34 @@
                   <c:v>-0.031</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.03</c:v>
+                  <c:v>-0.029</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.028</c:v>
+                  <c:v>-0.014</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.019</c:v>
+                  <c:v>0.006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.006</c:v>
+                  <c:v>0.044</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.058</c:v>
+                  <c:v>0.248</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.173</c:v>
+                  <c:v>0.395</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.317</c:v>
+                  <c:v>0.594</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.615</c:v>
+                  <c:v>0.704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.748</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>meanQuerySimilarity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Feuil1!$A$4:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Feuil1!$C$4:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.513</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.512</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.509</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.503</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.488</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.438</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.315</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.048</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.798</c:v>
+                  <c:v>0.749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -397,44 +283,164 @@
         <c:axId val="-2066313984"/>
         <c:axId val="-2066311040"/>
       </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanQuerySimilarity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$4:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.746</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.732</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.694</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.538</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.466</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2110772576"/>
+        <c:axId val="-2066130544"/>
+      </c:scatterChart>
       <c:valAx>
         <c:axId val="-2066313984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -453,7 +459,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -480,6 +486,7 @@
         <c:axId val="-2066311040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -497,37 +504,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -569,6 +545,69 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="-2066130544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2110772576"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2110772576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2066130544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -578,7 +617,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1206,16 +1245,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1503,7 +1542,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1515,18 +1554,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1537,7 +1576,7 @@
         <v>-3.1E-2</v>
       </c>
       <c r="C4">
-        <v>1.512</v>
+        <v>0.75600000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1545,10 +1584,10 @@
         <v>0.1</v>
       </c>
       <c r="B5">
-        <v>-0.03</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="C5">
-        <v>1.5129999999999999</v>
+        <v>0.75600000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1556,10 +1595,10 @@
         <v>0.2</v>
       </c>
       <c r="B6">
-        <v>-2.8000000000000001E-2</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="C6">
-        <v>1.512</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1567,10 +1606,10 @@
         <v>0.3</v>
       </c>
       <c r="B7">
-        <v>-1.9E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C7">
-        <v>1.512</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1578,10 +1617,10 @@
         <v>0.4</v>
       </c>
       <c r="B8">
-        <v>-6.0000000000000001E-3</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="C8">
-        <v>1.5089999999999999</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1589,10 +1628,10 @@
         <v>0.5</v>
       </c>
       <c r="B9">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="C9">
-        <v>1.5029999999999999</v>
+        <v>0.73199999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1600,10 +1639,10 @@
         <v>0.6</v>
       </c>
       <c r="B10">
-        <v>5.8000000000000003E-2</v>
+        <v>0.248</v>
       </c>
       <c r="C10">
-        <v>1.488</v>
+        <v>0.69399999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1611,10 +1650,10 @@
         <v>0.7</v>
       </c>
       <c r="B11">
-        <v>0.17299999999999999</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="C11">
-        <v>1.4379999999999999</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1622,10 +1661,10 @@
         <v>0.8</v>
       </c>
       <c r="B12">
-        <v>0.317</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="C12">
-        <v>1.3149999999999999</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1633,10 +1672,10 @@
         <v>0.9</v>
       </c>
       <c r="B13">
-        <v>0.61499999999999999</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="C13">
-        <v>1.048</v>
+        <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1644,10 +1683,10 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="C14">
-        <v>0.79800000000000004</v>
+        <v>0.39900000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/RS-OP-2016/result_graphs.xlsx
+++ b/RS-OP-2016/result_graphs.xlsx
@@ -235,37 +235,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.031</c:v>
+                  <c:v>-0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.029</c:v>
+                  <c:v>-0.076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.014</c:v>
+                  <c:v>-0.049</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.006</c:v>
+                  <c:v>-0.022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.044</c:v>
+                  <c:v>0.023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12</c:v>
+                  <c:v>0.095</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.248</c:v>
+                  <c:v>0.244</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.395</c:v>
+                  <c:v>0.441</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.594</c:v>
+                  <c:v>0.626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.704</c:v>
+                  <c:v>0.711</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.749</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -371,37 +371,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.756</c:v>
+                  <c:v>0.751</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.756</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.755</c:v>
+                  <c:v>0.749</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.754</c:v>
+                  <c:v>0.746</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.746</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.732</c:v>
+                  <c:v>0.726</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.694</c:v>
+                  <c:v>0.684</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.63</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.538</c:v>
+                  <c:v>0.526</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.466</c:v>
+                  <c:v>0.469</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.399</c:v>
+                  <c:v>0.415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1542,7 +1542,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>-3.1E-2</v>
+        <v>-0.1</v>
       </c>
       <c r="C4">
-        <v>0.75600000000000001</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1584,10 +1584,10 @@
         <v>0.1</v>
       </c>
       <c r="B5">
-        <v>-2.9000000000000001E-2</v>
+        <v>-7.5999999999999998E-2</v>
       </c>
       <c r="C5">
-        <v>0.75600000000000001</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1595,10 +1595,10 @@
         <v>0.2</v>
       </c>
       <c r="B6">
-        <v>-1.4E-2</v>
+        <v>-4.9000000000000002E-2</v>
       </c>
       <c r="C6">
-        <v>0.755</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1606,10 +1606,10 @@
         <v>0.3</v>
       </c>
       <c r="B7">
-        <v>6.0000000000000001E-3</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="C7">
-        <v>0.754</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1617,10 +1617,10 @@
         <v>0.4</v>
       </c>
       <c r="B8">
-        <v>4.3999999999999997E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="C8">
-        <v>0.746</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1628,10 +1628,10 @@
         <v>0.5</v>
       </c>
       <c r="B9">
-        <v>0.12</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C9">
-        <v>0.73199999999999998</v>
+        <v>0.72599999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1639,10 +1639,10 @@
         <v>0.6</v>
       </c>
       <c r="B10">
-        <v>0.248</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="C10">
-        <v>0.69399999999999995</v>
+        <v>0.68400000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1650,10 +1650,10 @@
         <v>0.7</v>
       </c>
       <c r="B11">
-        <v>0.39500000000000002</v>
+        <v>0.441</v>
       </c>
       <c r="C11">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1661,10 +1661,10 @@
         <v>0.8</v>
       </c>
       <c r="B12">
-        <v>0.59399999999999997</v>
+        <v>0.626</v>
       </c>
       <c r="C12">
-        <v>0.53800000000000003</v>
+        <v>0.52600000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1672,10 +1672,10 @@
         <v>0.9</v>
       </c>
       <c r="B13">
-        <v>0.70399999999999996</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="C13">
-        <v>0.46600000000000003</v>
+        <v>0.46899999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1683,10 +1683,10 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="C14">
-        <v>0.39900000000000002</v>
+        <v>0.41499999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/RS-OP-2016/result_graphs.xlsx
+++ b/RS-OP-2016/result_graphs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>w</t>
   </si>
@@ -35,7 +35,19 @@
     <t>meanQuerySimilarity</t>
   </si>
   <si>
-    <t>B1 - camera</t>
+    <t>Better B1</t>
+  </si>
+  <si>
+    <t>successfully restore Digital Camera.txt_feature_summaries_per_product  from file</t>
+  </si>
+  <si>
+    <t>successfully restore Digital Camera.txt_review_count_per_product  from file</t>
+  </si>
+  <si>
+    <t>successfully restore Digital Camera.txt_mean_rating_per_product  from file</t>
+  </si>
+  <si>
+    <t>Better B2</t>
   </si>
 </sst>
 </file>
@@ -71,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -102,6 +115,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Camera - B1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -134,17 +172,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0837304592791003"/>
-          <c:y val="0.114853658536585"/>
-          <c:w val="0.884430692497749"/>
-          <c:h val="0.802524102170156"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -153,7 +181,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$3</c:f>
+              <c:f>Feuil1!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -186,9 +214,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$A$4:$A$14</c:f>
+              <c:f>Feuil1!$A$6:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -230,9 +317,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$B$4:$B$14</c:f>
+              <c:f>Feuil1!$B$6:$B$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>-0.1</c:v>
@@ -273,8 +360,9 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -291,7 +379,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$C$3</c:f>
+              <c:f>Feuil1!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -322,9 +410,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$A$4:$A$14</c:f>
+              <c:f>Feuil1!$A$6:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -366,9 +513,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$C$4:$C$14</c:f>
+              <c:f>Feuil1!$C$6:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.751</c:v>
@@ -409,8 +556,9 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -441,6 +589,37 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -486,7 +665,7 @@
         <c:axId val="-2066311040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
+          <c:max val="1.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -504,7 +683,82 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Rating</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> Lift</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -552,7 +806,63 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Query Similarity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -617,7 +927,903 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Camera - B2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanRatingLift</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$6:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$22:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.079</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.273</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.446</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.651</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.093</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2108361216"/>
+        <c:axId val="-2074543728"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanQuerySimilarity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$6:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$22:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.747</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.741</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.706</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.652</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.577</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2067041632"/>
+        <c:axId val="-2108378880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2108361216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2074543728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2074543728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Rating</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> Lift</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2108361216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2108378880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Query Similarity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2067041632"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2067041632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2108378880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -725,6 +1931,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1241,20 +2487,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1268,6 +3030,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1539,10 +3333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1557,136 +3351,303 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>-0.1</v>
-      </c>
-      <c r="C4">
-        <v>0.751</v>
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0.1</v>
-      </c>
-      <c r="B5">
-        <v>-7.5999999999999998E-2</v>
-      </c>
-      <c r="C5">
-        <v>0.75</v>
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.2</v>
-      </c>
-      <c r="B6">
-        <v>-4.9000000000000002E-2</v>
-      </c>
-      <c r="C6">
-        <v>0.749</v>
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.751</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.3</v>
-      </c>
-      <c r="B7">
-        <v>-2.1999999999999999E-2</v>
-      </c>
-      <c r="C7">
-        <v>0.746</v>
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0.4</v>
-      </c>
-      <c r="B8">
-        <v>2.3E-2</v>
-      </c>
-      <c r="C8">
-        <v>0.74</v>
+        <v>0.2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.749</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>0.5</v>
-      </c>
-      <c r="B9">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="C9">
-        <v>0.72599999999999998</v>
+        <v>0.3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.746</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>0.6</v>
-      </c>
-      <c r="B10">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="C10">
-        <v>0.68400000000000005</v>
+        <v>0.4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>0.7</v>
-      </c>
-      <c r="B11">
-        <v>0.441</v>
-      </c>
-      <c r="C11">
-        <v>0.61</v>
+        <v>0.5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.72599999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>0.8</v>
-      </c>
-      <c r="B12">
-        <v>0.626</v>
-      </c>
-      <c r="C12">
-        <v>0.52600000000000002</v>
+        <v>0.6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.68400000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>0.9</v>
-      </c>
-      <c r="B13">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="C13">
-        <v>0.46899999999999997</v>
+        <v>0.7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.441</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.61</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.626</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.9</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>1</v>
       </c>
-      <c r="B14">
+      <c r="B16" s="1">
         <v>0.748</v>
       </c>
-      <c r="C14">
+      <c r="C16" s="1">
         <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.4</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.6</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.154</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.7</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.8</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.9</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.093</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.32500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/RS-OP-2016/result_graphs.xlsx
+++ b/RS-OP-2016/result_graphs.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Camera" sheetId="1" r:id="rId1"/>
+    <sheet name="Printer" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>w</t>
   </si>
@@ -48,6 +49,15 @@
   </si>
   <si>
     <t>Better B2</t>
+  </si>
+  <si>
+    <t>successfully restore Printer.txt_feature_summaries_per_product  from file</t>
+  </si>
+  <si>
+    <t>successfully restore Printer.txt_review_count_per_product  from file</t>
+  </si>
+  <si>
+    <t>successfully restore Printer.txt_mean_rating_per_product  from file</t>
   </si>
 </sst>
 </file>
@@ -181,7 +191,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$5</c:f>
+              <c:f>Camera!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -275,7 +285,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$A$6:$A$16</c:f>
+              <c:f>Camera!$A$6:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -317,7 +327,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$B$6:$B$16</c:f>
+              <c:f>Camera!$B$6:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -379,7 +389,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$C$5</c:f>
+              <c:f>Camera!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -471,7 +481,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$A$6:$A$16</c:f>
+              <c:f>Camera!$A$6:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -513,7 +523,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$C$6:$C$16</c:f>
+              <c:f>Camera!$C$6:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1076,7 +1086,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$5</c:f>
+              <c:f>Camera!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1170,7 +1180,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$A$6:$A$16</c:f>
+              <c:f>Camera!$A$6:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1212,7 +1222,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$B$22:$B$32</c:f>
+              <c:f>Camera!$B$22:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1274,7 +1284,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$C$5</c:f>
+              <c:f>Camera!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1366,7 +1376,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$A$6:$A$16</c:f>
+              <c:f>Camera!$A$6:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1408,7 +1418,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$C$22:$C$32</c:f>
+              <c:f>Camera!$C$22:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1891,6 +1901,1797 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Printer - B1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Printer!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanRatingLift</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Printer!$A$6:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Printer!$B$6:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.167</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.264</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.087</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2058301440"/>
+        <c:axId val="-2058193520"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Printer!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanQuerySimilarity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Printer!$A$6:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Printer!$C$6:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.652</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.648</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.638</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.616</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.379</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2057394080"/>
+        <c:axId val="-2124630912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2058301440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2058193520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2058193520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" u="none"/>
+                  <a:t>Rating</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" u="none" baseline="0"/>
+                  <a:t> Lift</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR" u="none"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2058301440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2124630912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Query Similarity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2057394080"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2057394080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2124630912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Printer - B2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Printer!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanRatingLift</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Printer!$A$6:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Printer!$B$22:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.257</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.313</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.383</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.466</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2069507424"/>
+        <c:axId val="-2066524096"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Printer!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanQuerySimilarity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Printer!$A$6:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Printer!$C$22:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.681</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.681</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.681</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.679</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.677</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.673</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.557</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.424</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2057952432"/>
+        <c:axId val="-2086983664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2069507424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2066524096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2066524096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Rating</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> Lift</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2069507424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2086983664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Query Similarity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2057952432"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2057952432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2086983664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1971,6 +3772,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2488,6 +4369,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3051,6 +5964,75 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3335,8 +6317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3655,4 +6637,330 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.123</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.155</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.9</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.154</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.67900000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.4</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.6</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.313</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.66400000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.7</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.8</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.9</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.42399999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/RS-OP-2016/result_graphs.xlsx
+++ b/RS-OP-2016/result_graphs.xlsx
@@ -6643,8 +6643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
